--- a/src/test/java/Assignments/Assignment04/Task 1_User Store 1.xlsx
+++ b/src/test/java/Assignments/Assignment04/Task 1_User Store 1.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29127"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DF2EE0D6-978B-4470-9A5D-843CFA1B07B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D80BCFD-F70B-4782-A7DD-E0401A3A7A2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -723,28 +723,28 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="3" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1080,11 +1080,11 @@
       <c r="A1" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
       <c r="E1" s="12" t="s">
         <v>17</v>
       </c>
@@ -1235,52 +1235,52 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="25" t="s">
         <v>37</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="D2" s="24" t="s">
+      <c r="D2" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="26" t="s">
+      <c r="E2" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="22"/>
+      <c r="F2" s="26"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="22"/>
-      <c r="B3" s="23"/>
+      <c r="A3" s="26"/>
+      <c r="B3" s="25"/>
       <c r="C3" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="D3" s="25"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="22"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="26"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="22"/>
-      <c r="B4" s="23"/>
+      <c r="A4" s="26"/>
+      <c r="B4" s="25"/>
       <c r="C4" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="D4" s="25"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="22"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="26"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="22"/>
-      <c r="B5" s="23"/>
+      <c r="A5" s="26"/>
+      <c r="B5" s="25"/>
       <c r="C5" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="D5" s="25"/>
-      <c r="E5" s="27"/>
-      <c r="F5" s="22"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="26"/>
     </row>
     <row r="6" spans="1:6" ht="15.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
@@ -1291,52 +1291,52 @@
       <c r="F6" s="1"/>
     </row>
     <row r="7" spans="1:6" ht="20.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="22" t="s">
+      <c r="A7" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="23" t="s">
+      <c r="B7" s="25" t="s">
         <v>45</v>
       </c>
       <c r="C7" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="22" t="s">
+      <c r="D7" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="23" t="s">
+      <c r="E7" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="F7" s="22"/>
+      <c r="F7" s="26"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="22"/>
-      <c r="B8" s="23"/>
+      <c r="A8" s="26"/>
+      <c r="B8" s="25"/>
       <c r="C8" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="D8" s="22"/>
-      <c r="E8" s="22"/>
-      <c r="F8" s="22"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="26"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="22"/>
-      <c r="B9" s="23"/>
+      <c r="A9" s="26"/>
+      <c r="B9" s="25"/>
       <c r="C9" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="D9" s="22"/>
-      <c r="E9" s="22"/>
-      <c r="F9" s="22"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="26"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="22"/>
-      <c r="B10" s="23"/>
+      <c r="A10" s="26"/>
+      <c r="B10" s="25"/>
       <c r="C10" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="D10" s="22"/>
-      <c r="E10" s="22"/>
-      <c r="F10" s="22"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="26"/>
     </row>
     <row r="11" spans="1:6" ht="15.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
@@ -1347,72 +1347,72 @@
       <c r="F11" s="1"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="22" t="s">
+      <c r="A12" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="23" t="s">
+      <c r="B12" s="25" t="s">
         <v>44</v>
       </c>
       <c r="C12" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="D12" s="22" t="s">
+      <c r="D12" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="E12" s="23" t="s">
+      <c r="E12" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="F12" s="22"/>
+      <c r="F12" s="26"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="22"/>
-      <c r="B13" s="23"/>
+      <c r="A13" s="26"/>
+      <c r="B13" s="25"/>
       <c r="C13" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="D13" s="22"/>
-      <c r="E13" s="22"/>
-      <c r="F13" s="22"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="26"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="22"/>
-      <c r="B14" s="23"/>
+      <c r="A14" s="26"/>
+      <c r="B14" s="25"/>
       <c r="C14" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="D14" s="22"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="22"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="26"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="22"/>
-      <c r="B15" s="23"/>
+      <c r="A15" s="26"/>
+      <c r="B15" s="25"/>
       <c r="C15" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="D15" s="22"/>
-      <c r="E15" s="22"/>
-      <c r="F15" s="22"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="26"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="22"/>
-      <c r="B16" s="23"/>
+      <c r="A16" s="26"/>
+      <c r="B16" s="25"/>
       <c r="C16" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="D16" s="22"/>
-      <c r="E16" s="22"/>
-      <c r="F16" s="22"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="26"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="22"/>
-      <c r="B17" s="23"/>
+      <c r="A17" s="26"/>
+      <c r="B17" s="25"/>
       <c r="C17" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="D17" s="22"/>
-      <c r="E17" s="22"/>
-      <c r="F17" s="22"/>
+      <c r="D17" s="26"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="26"/>
     </row>
     <row r="18" spans="1:6" ht="15.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
@@ -1423,92 +1423,92 @@
       <c r="F18" s="1"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="22" t="s">
+      <c r="A19" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B19" s="22" t="s">
+      <c r="B19" s="26" t="s">
         <v>42</v>
       </c>
       <c r="C19" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="D19" s="22" t="s">
+      <c r="D19" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="E19" s="23" t="s">
+      <c r="E19" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="F19" s="22"/>
+      <c r="F19" s="26"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="22"/>
-      <c r="B20" s="22"/>
+      <c r="A20" s="26"/>
+      <c r="B20" s="26"/>
       <c r="C20" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="D20" s="22"/>
-      <c r="E20" s="23"/>
-      <c r="F20" s="22"/>
+      <c r="D20" s="26"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="26"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="22"/>
-      <c r="B21" s="22"/>
+      <c r="A21" s="26"/>
+      <c r="B21" s="26"/>
       <c r="C21" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="D21" s="22"/>
-      <c r="E21" s="23"/>
-      <c r="F21" s="22"/>
+      <c r="D21" s="26"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="26"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="22"/>
-      <c r="B22" s="22"/>
+      <c r="A22" s="26"/>
+      <c r="B22" s="26"/>
       <c r="C22" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="D22" s="22"/>
-      <c r="E22" s="23"/>
-      <c r="F22" s="22"/>
+      <c r="D22" s="26"/>
+      <c r="E22" s="25"/>
+      <c r="F22" s="26"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="22"/>
-      <c r="B23" s="22"/>
+      <c r="A23" s="26"/>
+      <c r="B23" s="26"/>
       <c r="C23" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="D23" s="22"/>
-      <c r="E23" s="23"/>
-      <c r="F23" s="22"/>
+      <c r="D23" s="26"/>
+      <c r="E23" s="25"/>
+      <c r="F23" s="26"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="22"/>
-      <c r="B24" s="22"/>
+      <c r="A24" s="26"/>
+      <c r="B24" s="26"/>
       <c r="C24" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="D24" s="22"/>
-      <c r="E24" s="23"/>
-      <c r="F24" s="22"/>
+      <c r="D24" s="26"/>
+      <c r="E24" s="25"/>
+      <c r="F24" s="26"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="22"/>
-      <c r="B25" s="22"/>
+      <c r="A25" s="26"/>
+      <c r="B25" s="26"/>
       <c r="C25" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="D25" s="22"/>
-      <c r="E25" s="23"/>
-      <c r="F25" s="22"/>
+      <c r="D25" s="26"/>
+      <c r="E25" s="25"/>
+      <c r="F25" s="26"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="22"/>
-      <c r="B26" s="22"/>
+      <c r="A26" s="26"/>
+      <c r="B26" s="26"/>
       <c r="C26" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="D26" s="22"/>
-      <c r="E26" s="22"/>
-      <c r="F26" s="22"/>
+      <c r="D26" s="26"/>
+      <c r="E26" s="26"/>
+      <c r="F26" s="26"/>
     </row>
     <row r="27" spans="1:6" ht="15.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
@@ -1519,65 +1519,80 @@
       <c r="F27" s="1"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="22" t="s">
+      <c r="A28" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="B28" s="23" t="s">
+      <c r="B28" s="25" t="s">
         <v>63</v>
       </c>
       <c r="C28" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="D28" s="22" t="s">
+      <c r="D28" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="E28" s="23" t="s">
+      <c r="E28" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="F28" s="22"/>
+      <c r="F28" s="26"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" s="22"/>
-      <c r="B29" s="22"/>
+      <c r="A29" s="26"/>
+      <c r="B29" s="26"/>
       <c r="C29" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="D29" s="22"/>
-      <c r="E29" s="22"/>
-      <c r="F29" s="22"/>
+      <c r="D29" s="26"/>
+      <c r="E29" s="26"/>
+      <c r="F29" s="26"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" s="22"/>
-      <c r="B30" s="22"/>
+      <c r="A30" s="26"/>
+      <c r="B30" s="26"/>
       <c r="C30" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="D30" s="22"/>
-      <c r="E30" s="22"/>
-      <c r="F30" s="22"/>
+      <c r="D30" s="26"/>
+      <c r="E30" s="26"/>
+      <c r="F30" s="26"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" s="22"/>
-      <c r="B31" s="22"/>
+      <c r="A31" s="26"/>
+      <c r="B31" s="26"/>
       <c r="C31" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="D31" s="22"/>
-      <c r="E31" s="22"/>
-      <c r="F31" s="22"/>
+      <c r="D31" s="26"/>
+      <c r="E31" s="26"/>
+      <c r="F31" s="26"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A32" s="22"/>
-      <c r="B32" s="22"/>
+      <c r="A32" s="26"/>
+      <c r="B32" s="26"/>
       <c r="C32" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="D32" s="22"/>
-      <c r="E32" s="22"/>
-      <c r="F32" s="22"/>
+      <c r="D32" s="26"/>
+      <c r="E32" s="26"/>
+      <c r="F32" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A7:A10"/>
+    <mergeCell ref="A12:A17"/>
+    <mergeCell ref="A19:A26"/>
+    <mergeCell ref="A28:A32"/>
+    <mergeCell ref="D28:D32"/>
+    <mergeCell ref="B7:B10"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="B12:B17"/>
+    <mergeCell ref="B28:B32"/>
+    <mergeCell ref="B19:B26"/>
+    <mergeCell ref="D2:D5"/>
+    <mergeCell ref="D7:D10"/>
+    <mergeCell ref="D12:D17"/>
+    <mergeCell ref="D19:D26"/>
     <mergeCell ref="E2:E5"/>
     <mergeCell ref="E7:E10"/>
     <mergeCell ref="F28:F32"/>
@@ -1588,21 +1603,6 @@
     <mergeCell ref="F7:F10"/>
     <mergeCell ref="F12:F17"/>
     <mergeCell ref="F19:F26"/>
-    <mergeCell ref="D28:D32"/>
-    <mergeCell ref="B7:B10"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="B12:B17"/>
-    <mergeCell ref="B28:B32"/>
-    <mergeCell ref="B19:B26"/>
-    <mergeCell ref="D2:D5"/>
-    <mergeCell ref="D7:D10"/>
-    <mergeCell ref="D12:D17"/>
-    <mergeCell ref="D19:D26"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A7:A10"/>
-    <mergeCell ref="A12:A17"/>
-    <mergeCell ref="A19:A26"/>
-    <mergeCell ref="A28:A32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1613,7 +1613,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="74" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="74" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
@@ -1733,7 +1733,7 @@
       <c r="E4" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="F4" s="28" t="s">
+      <c r="F4" s="21" t="s">
         <v>117</v>
       </c>
       <c r="G4" s="4" t="s">
@@ -1820,7 +1820,7 @@
       <c r="E7" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="F7" s="28" t="s">
+      <c r="F7" s="21" t="s">
         <v>122</v>
       </c>
       <c r="G7" s="5" t="s">
@@ -1849,7 +1849,7 @@
       <c r="E8" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="F8" s="28" t="s">
+      <c r="F8" s="21" t="s">
         <v>124</v>
       </c>
       <c r="G8" s="4" t="s">
@@ -1920,7 +1920,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="42" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" ht="28" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>70</v>
       </c>
